--- a/9.评审报告及问题清单/2016-5-20-测试需求互评审问题清单.xlsx
+++ b/9.评审报告及问题清单/2016-5-20-测试需求互评审问题清单.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EEEEEEEEEEE\#烟酒僧啊啊啊啊啊啊啊啊啊啊\16TeamG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wy\Documents\2016春课\软工实验\16TeamG\9.评审报告及问题清单\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -616,37 +616,42 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>节</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>“Spark</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试用例与需求用例对照表</t>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第三节功能需求测试用例描述以及第四节非功能需求测试用例描述中涉及的所有测试用例描述表格中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编制人</t>
     </r>
     <r>
       <rPr>
@@ -657,45 +662,47 @@
       </rPr>
       <t>”</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接受。增加细化的非功能性需求测试用例的设计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>第三节</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>功能需求测试用例描述以及第四节非功能需求测试用例描述中涉及的所有测试用例描述表格中的</t>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一栏</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非功能需求测试用例描述</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根本不需要提及</t>
     </r>
     <r>
       <rPr>
@@ -714,7 +721,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>参考信息</t>
+      <t>功能需求</t>
     </r>
     <r>
       <rPr>
@@ -733,6 +740,99 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>，然后再写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第四节非功能需求测试用例描述中的表格中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试目的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>一栏</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -749,7 +849,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>参考信息</t>
+      <t>测试目的</t>
     </r>
     <r>
       <rPr>
@@ -768,7 +868,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>描述为</t>
+      <t>，如果本表是样表，也应该写个样例，而不是泛泛的</t>
     </r>
     <r>
       <rPr>
@@ -787,7 +887,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>《需求规格说明书》中对应部分</t>
+      <t>测试非功能性需求</t>
     </r>
     <r>
       <rPr>
@@ -806,592 +906,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>，这一信息描述可具体为文档中第几章第几小节的内容，否则，没有实际意义。</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>第三节功能需求测试用例描述以及第四节非功能需求测试用例描述中涉及的所有测试用例描述表格中的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>编制人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一栏</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>第四节非功能需求测试用例描述中的表格中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>功能需求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一栏</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>非功能需求测试用例描述</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>根本不需要提及</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>功能需求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，然后再写</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>；</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>接受</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>第四节非功能需求测试用例描述中的表格中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试目的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一栏</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试目的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，如果本表是样表，也应该写个样例，而不是泛泛的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试非功能性需求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>接受。更改为更细致的非功能性需求测试用例后改成相应的测试目的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>第四节非功能需求测试用例描述中的表格中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>操作步骤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一栏</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>操作步骤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中，运行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>1-15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>好测试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>好</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>如何理解？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在测试过程中对时间空间以及其他各种与非功能性需求相对应的测试进行测试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不大理解，尤其其中的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时间空间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，太过泛泛，比如时间要注明衡量标准的尺度，空间要注明是内存大小还是集群的节点大小。</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1813,6 +1333,486 @@
   <si>
     <t>处理意见</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>节</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>“Spark</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试用例与需求用例对照表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受。增加细化的非功能性需求测试用例的设计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第三节</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>功能需求测试用例描述以及第四节非功能需求测试用例描述中涉及的所有测试用例描述表格中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一栏</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>描述为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>《需求规格说明书》中对应部分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，这一信息描述可具体为文档中第几章第几小节的内容，否则，没有实际意义。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第四节非功能需求测试用例描述中的表格中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>功能需求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一栏</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第四节非功能需求测试用例描述中的表格中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作步骤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一栏</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作步骤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中，运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>1-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>好测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如何理解？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在测试过程中对时间空间以及其他各种与非功能性需求相对应的测试进行测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不大理解，尤其其中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间空间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，太过泛泛，比如时间要注明衡量标准的尺度，空间要注明是内存大小还是集群的节点大小。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2270,8 +2270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2307,13 +2307,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2321,13 +2321,13 @@
         <v>39</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
@@ -2335,13 +2335,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>3</v>
@@ -2352,10 +2352,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>5</v>
@@ -2369,16 +2369,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.15">
@@ -2386,19 +2386,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2406,16 +2406,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2423,16 +2423,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -2440,10 +2440,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>8</v>
@@ -2457,7 +2457,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>9</v>
@@ -2488,13 +2488,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>15</v>
@@ -2505,10 +2505,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>16</v>
@@ -2525,7 +2525,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>18</v>
@@ -2542,10 +2542,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F16" s="14"/>
     </row>
@@ -2569,11 +2569,11 @@
         <v>16</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="20" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>21</v>
@@ -2597,11 +2597,11 @@
         <v>18</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="22" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F20" s="21" t="s">
         <v>21</v>
@@ -2642,7 +2642,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="22" t="s">
@@ -2664,7 +2664,7 @@
         <v>29</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -2713,7 +2713,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="24" t="s">
@@ -2746,20 +2746,20 @@
       <c r="B31" s="16"/>
       <c r="C31" s="17"/>
       <c r="D31" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F31" s="14"/>
     </row>
-    <row r="32" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="16"/>
       <c r="B32" s="16">
         <v>1</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F32" s="14"/>
     </row>
@@ -2769,10 +2769,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F33" s="14"/>
     </row>
@@ -2782,10 +2782,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F34" s="14"/>
     </row>
